--- a/biology/Microbiologie/Milieu_Rosenow/Milieu_Rosenow.xlsx
+++ b/biology/Microbiologie/Milieu_Rosenow/Milieu_Rosenow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosenow est milieu de culture utilisé pour les anaérobies.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peptone : 10,0 g
 Extrait de viande : 3,0 g
@@ -550,7 +564,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>21 g par litre
 Ajouter un morceau de marbre et un morceau de cervelle par tube
@@ -582,7 +598,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu doit être utilisé dans les 15 jours suivant la préparation. Il peut être congelé. Avant utilisation, il doit être régénéré. Après ensemencement, il doit être recouvert de paraffine. La fermentation du glucose se traduit par une coloration franchement rouge, la réduction du milieu par une décoloration du milieu. Les bactéries donnant une coloration vertes sont non glucydolytiques et alcalinisantes.
  Portail de la microbiologie                     </t>
